--- a/figures/resultsa.xlsx
+++ b/figures/resultsa.xlsx
@@ -8,13 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnsauhu/Documents/MCM_ZH/figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60F08DB2-80ED-5D44-8039-41B7828EE4A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBE3F61-D929-2146-985B-A9F7AD4E6013}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2220" yWindow="2460" windowWidth="26300" windowHeight="15040" xr2:uid="{18F688AE-D229-264C-9E9D-3D23EC3401D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$7</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$B$2:$B$7</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$A$2:$A$7</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$B$2:$B$7</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$7</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$2:$A$7</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$2:$B$7</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$2:$A$7</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$2:$B$7</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$A$2:$A$7</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Valid Reviews</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sample1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,11 +72,18 @@
   <si>
     <t>Sample6</t>
   </si>
+  <si>
+    <t>Reputation Scores</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -103,8 +123,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -124,693 +147,84 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:strDim>
+      <cx:numDim type="size">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              </a:rPr>
+              <a:t>Repuation Scores</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="30"/>
-      <c:rotY val="0"/>
-      <c:depthPercent val="100"/>
-      <c:rAngAx val="0"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
-    <c:plotArea>
-      <c:layout/>
-      <c:pie3DChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Valid Reviews</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="10000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="127000" h="127000"/>
-                <a:bevelB w="127000" h="127000"/>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-59AB-DA45-A9AE-B8C55551E3B1}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="10000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="127000" h="127000"/>
-                <a:bevelB w="127000" h="127000"/>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-59AB-DA45-A9AE-B8C55551E3B1}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="10000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="127000" h="127000"/>
-                <a:bevelB w="127000" h="127000"/>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-59AB-DA45-A9AE-B8C55551E3B1}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="10000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="127000" h="127000"/>
-                <a:bevelB w="127000" h="127000"/>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-59AB-DA45-A9AE-B8C55551E3B1}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="10000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="127000" h="127000"/>
-                <a:bevelB w="127000" h="127000"/>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-59AB-DA45-A9AE-B8C55551E3B1}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="10000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="127000" h="127000"/>
-                <a:bevelB w="127000" h="127000"/>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-59AB-DA45-A9AE-B8C55551E3B1}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="zh-CN"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-59AB-DA45-A9AE-B8C55551E3B1}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="accent2"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="zh-CN"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-59AB-DA45-A9AE-B8C55551E3B1}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="accent3"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="zh-CN"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-59AB-DA45-A9AE-B8C55551E3B1}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="accent4"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="zh-CN"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-59AB-DA45-A9AE-B8C55551E3B1}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="accent5"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="zh-CN"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-59AB-DA45-A9AE-B8C55551E3B1}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="accent6"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="zh-CN"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-59AB-DA45-A9AE-B8C55551E3B1}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Sample1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sample2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sample3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Sample4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sample5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Sample6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-59AB-DA45-A9AE-B8C55551E3B1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="1"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-      </c:pie3DChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="treemap" uniqueId="{59DF6D7D-09B4-2148-90D3-8A162B0268FF}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:v>Reputation Scores</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataPt idx="2"/>
+          <cx:dataPt idx="5"/>
+          <cx:dataLabels pos="inEnd">
+            <cx:visibility seriesName="0" categoryName="1" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:parentLabelLayout val="overlapping"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+  <cx:spPr>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+  </cx:spPr>
+</cx:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -854,7 +268,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="259">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="410">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -865,7 +279,19 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1">
+          <a:lumMod val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -877,7 +303,18 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -900,25 +337,26 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="1000"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <cs:styleClr val="auto"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0"/>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <cs:styleClr val="auto"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -926,11 +364,14 @@
       </a:solidFill>
       <a:ln>
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" b="1" kern="1200"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
@@ -942,19 +383,17 @@
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="20000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -964,27 +403,12 @@
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="10000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-      <a:scene3d>
-        <a:camera prst="orthographicFront"/>
-        <a:lightRig rig="threePt" dir="t"/>
-      </a:scene3d>
-      <a:sp3d>
-        <a:bevelT w="127000" h="127000"/>
-        <a:bevelB w="127000" h="127000"/>
-      </a:sp3d>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -994,7 +418,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
@@ -1012,7 +436,7 @@
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1025,7 +449,7 @@
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -1033,10 +457,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1055,41 +479,38 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1138,12 +559,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -1175,8 +590,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1194,8 +609,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1231,14 +646,14 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:legend>
   <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -1246,7 +661,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1259,7 +674,18 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
   </cs:seriesAxis>
   <cs:seriesLine>
     <cs:lnRef idx="0"/>
@@ -1269,12 +695,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -1290,7 +713,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" baseline="0"/>
+    <cs:defRPr sz="1400"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1320,27 +743,26 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1354,7 +776,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -1363,12 +785,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1377,38 +793,80 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>692150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A142685-7954-2946-99E5-3F914581E0EA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="图表 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{646F3599-8FA3-2448-A7E3-FBE65272EE56}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4006850" y="2000250"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>此图表在您的 Excel 版本中不可用。
+编辑此形状或将此工作簿转换为其他文件格式将永久破坏图表。</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1714,7 +1172,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1727,55 +1185,55 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>36</v>
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>170.79657457881501</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>242.649216419753</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>17</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>199.355479083528</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>234.93993814929499</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
         <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>122.051335536818</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>192.651327532491</v>
       </c>
     </row>
   </sheetData>
